--- a/biology/Zoologie/Atractus_trefauti/Atractus_trefauti.xlsx
+++ b/biology/Zoologie/Atractus_trefauti/Atractus_trefauti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Atractus trefauti est une espèce de serpents de la famille des Dipsadidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atractus trefauti est une espèce de serpents de la famille des Dipsadidae.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mâle holotype mesure 235 mm, il est noir avec des anneaux rouges.  
 </t>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Guyane et dans le nord du Brésil[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Guyane et dans le nord du Brésil.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'épithète spécifique de cette espèce, trefauti, est dédié à l'herpétologiste Miguel Trefaut Urbano Rodrigues de l'université de São Paulo[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique de cette espèce, trefauti, est dédié à l'herpétologiste Miguel Trefaut Urbano Rodrigues de l'université de São Paulo.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Paulo Roberto Melo-Sampaio, Paulo Passos, Antoine Fouquet et Ana Lucia Da Costa Prudente, « Systematic review of Atractus schach (Serpentes: Dipsadidae) species complex from the Guiana Shield with description of three new species », Systematics and Biodiversity, vol. 17, no 3,‎ 3 avril 2019, p. 207–229 (ISSN 1477-2000, DOI 10.1080/14772000.2019.1611674, lire en ligne)</t>
         </is>
